--- a/схема.xlsx
+++ b/схема.xlsx
@@ -38,9 +38,6 @@
     <t>В поддержку новичкам реализована программа помогатор, в рамках которой студенты могут помогать отстающим</t>
   </si>
   <si>
-    <t>Стипендия есть у студентов, учащихся на бюджете, до первой сессии она есть у всех первокурсников и равна стипендии для студентов, сдавших сессию на 4 и 5. После первой сессии для студентов, сдавших сессию на 4 и 5 она составляет, по последним данным, 3383 рубля, для сдавших сессию на 5 - 5751 рубль. Сумма стипендии иногда меняется, поэтому советую отслеживать новости в группе профкома фсир в вк</t>
-  </si>
-  <si>
     <t>Для школьников проводятся дни открытых дверей, на которых можно узнать всю необходимую информацию о факультете, задать вопросы, больше узнать о программе прикладной информатики</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>какие рядом магазины</t>
+  </si>
+  <si>
+    <t>Стипендия есть у студентов, учащихся на бюджете, до первой сессии она есть у всех первокурсников и равна стипендии для студентов, сдавших сессию на 4 и 5. После первой сессии для студентов, сдавших сессию на 4 и 5 она составляет, по последним данным, 3200 рублей, для сдавших сессию на 5 - 5600 рублей. Сумма стипендии иногда меняется, поэтому советую отслеживать новости в группе профкома фсир в вк</t>
   </si>
 </sst>
 </file>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -484,72 +484,72 @@
     </row>
     <row r="5" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">

--- a/схема.xlsx
+++ b/схема.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Предметы расставлены в приоритете1.информатика 2. математика 3. русский язык</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Стипендия есть у студентов, учащихся на бюджете, до первой сессии она есть у всех первокурсников и равна стипендии для студентов, сдавших сессию на 4 и 5. После первой сессии для студентов, сдавших сессию на 4 и 5 она составляет, по последним данным, 3200 рублей, для сдавших сессию на 5 - 5600 рублей. Сумма стипендии иногда меняется, поэтому советую отслеживать новости в группе профкома фсир в вк</t>
+  </si>
+  <si>
+    <t>лермонтова 126</t>
   </si>
 </sst>
 </file>
@@ -439,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +505,9 @@
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">

--- a/схема.xlsx
+++ b/схема.xlsx
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
-  <si>
-    <t>Предметы расставлены в приоритете1.информатика 2. математика 3. русский язык</t>
-  </si>
-  <si>
-    <t>На сайте игу есть информация о самом университете, а также подразделение сервиса и рекламы</t>
-  </si>
-  <si>
-    <t>Есть возможность изучать польский ( некоторые студенты после этого могут поехать по обмену в Польшу), французский (?)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>В поддержку новичкам реализована программа помогатор, в рамках которой студенты могут помогать отстающим</t>
   </si>
@@ -41,21 +32,6 @@
     <t>Для школьников проводятся дни открытых дверей, на которых можно узнать всю необходимую информацию о факультете, задать вопросы, больше узнать о программе прикладной информатики</t>
   </si>
   <si>
-    <t>Иногда на факультете проводятся клубные тусовки, где ты можешь потанцевать и подвигаться. (поднимает брови)Но есть и милые ламповые встречи, например, мне по душе пришелся вечер стихов при тусклом свете и пением под гитару. (мечтательная улыбка) К тому же, проводятся выступления по поводу окончания семестра, например, недавно была "мисс весна", где выступали вокалистки факультета ( снова поднимает брови)</t>
-  </si>
-  <si>
-    <t>Слата выше по склону/Киоск прямо на остановке</t>
-  </si>
-  <si>
-    <t>Для удобства студентов создан форлабс, электронная база, где можно отследить свои баллы по предметам, посмотреть или прикрепить домашнее задание, написать преподавателю или пройти тест или контрольную в режиме онлайн/Для прикладников, и конечно для всех желающих существует возможность создания своих проектов в лаборатории, общение со старшими курсами, которые могут помочь и рассказать что-то полезное</t>
-  </si>
-  <si>
-    <t>Ахахах, о еде(удивление + улыбка). В корпусе на первом этаже есть столовая и автомат с кофе (улыбка), также прямо на остановке факультета есть киоск, выше по склону слата, и в библиотеке, где ты можешь ещё и почитать, есть столовая, где можно полноценно покушать.</t>
-  </si>
-  <si>
-    <t>когда можно прийти и посмотреть факультет</t>
-  </si>
-  <si>
     <t>какие егэ учитываются при поступлении на прикладную информатику</t>
   </si>
   <si>
@@ -80,9 +56,6 @@
     <t>чем еще можно заняться в свободное время</t>
   </si>
   <si>
-    <t>какие есть привилегии у студента факультета сервиса и рекламы</t>
-  </si>
-  <si>
     <t>какие устраиваются тусовки для студентов</t>
   </si>
   <si>
@@ -95,7 +68,37 @@
     <t>Стипендия есть у студентов, учащихся на бюджете, до первой сессии она есть у всех первокурсников и равна стипендии для студентов, сдавших сессию на 4 и 5. После первой сессии для студентов, сдавших сессию на 4 и 5 она составляет, по последним данным, 3200 рублей, для сдавших сессию на 5 - 5600 рублей. Сумма стипендии иногда меняется, поэтому советую отслеживать новости в группе профкома фсир в вк</t>
   </si>
   <si>
-    <t>лермонтова 126</t>
+    <t>Предметы расставлены в приоритете: информатика, математика, русский язык</t>
+  </si>
+  <si>
+    <t>На сайте иркутского государственного университета есть информация о самом университете, а также о факультете сервиса и рекламы</t>
+  </si>
+  <si>
+    <t>Есть возможность изучать польский, некоторые студенты после этого могут поехать по обмену в Польшу; французский или испанский, для направления туризм; английский в рамках учебной программы</t>
+  </si>
+  <si>
+    <t>когда можно прийти посмотреть факультет</t>
+  </si>
+  <si>
+    <t>корпус №6 лермонтова 126, главный корпус рядом с белый домом</t>
+  </si>
+  <si>
+    <t>Ахахах, о еде $$удивление + улыбка$$. В корпусе на первом этаже есть столовая и автомат с кофе $$улыбка$$, также прямо на остановке факультета есть киоск, выше по склону слата, и в библиотеке, где ты можешь ещё и почитать, есть столовая, где можно полноценно покушать.</t>
+  </si>
+  <si>
+    <t>Иногда на факультете проводятся клубные тусовки, где ты можешь потанцевать и подвигаться. $$поднимает брови$$Но есть и милые ламповые встречи, например, мне по душе пришелся вечер стихов при тусклом свете и пением под гитару. $$мечтательная улыбка$$ К тому же, проводятся выступления по поводу окончания семестра, например, недавно была "мисс весна", где выступали вокалистки факультета $$поднимает брови$$</t>
+  </si>
+  <si>
+    <t>Слата выше по склону и киоск прямо на остановке</t>
+  </si>
+  <si>
+    <t>Для удобства студентов создан форлабс, электронная база, где можно отследить свои баллы по предметам, посмотреть или прикрепить домашнее задание, написать преподавателю или пройти тест или контрольную в режиме онлайн. Для прикладников, и конечно для всех желающих существует возможность создания своих проектов в лаборатории, общение со старшими курсами, которые могут помочь и рассказать что-то полезное</t>
+  </si>
+  <si>
+    <t>какие  привилегии</t>
+  </si>
+  <si>
+    <t>какие привилегии у факультета сервиса и рекламы</t>
   </si>
 </sst>
 </file>
@@ -442,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,111 +458,115 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="216" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="216" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="216" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>

--- a/схема.xlsx
+++ b/схема.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>В поддержку новичкам реализована программа помогатор, в рамках которой студенты могут помогать отстающим</t>
   </si>
@@ -99,6 +99,42 @@
   </si>
   <si>
     <t>какие привилегии у факультета сервиса и рекламы</t>
+  </si>
+  <si>
+    <t>пока</t>
+  </si>
+  <si>
+    <t>пока пока</t>
+  </si>
+  <si>
+    <t>до встречи</t>
+  </si>
+  <si>
+    <t>довстречи</t>
+  </si>
+  <si>
+    <t>досвиданья</t>
+  </si>
+  <si>
+    <t>досвиданье</t>
+  </si>
+  <si>
+    <t>доброй ночи</t>
+  </si>
+  <si>
+    <t>снокойной ночи</t>
+  </si>
+  <si>
+    <t>до завтра</t>
+  </si>
+  <si>
+    <t>дозавтра</t>
+  </si>
+  <si>
+    <t>увидимся позже</t>
+  </si>
+  <si>
+    <t>удачи</t>
   </si>
 </sst>
 </file>
@@ -443,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,103 +492,139 @@
     <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -560,7 +632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -568,11 +640,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>

--- a/схема.xlsx
+++ b/схема.xlsx
@@ -47,9 +47,6 @@
     <t>где находится корпус</t>
   </si>
   <si>
-    <t>есть ли в корпусе столовая</t>
-  </si>
-  <si>
     <t>какие мероприятия есть на факультете</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>корпус №6 лермонтова 126, главный корпус рядом с белый домом</t>
   </si>
   <si>
-    <t>Ахахах, о еде $$удивление + улыбка$$. В корпусе на первом этаже есть столовая и автомат с кофе $$улыбка$$, также прямо на остановке факультета есть киоск, выше по склону слата, и в библиотеке, где ты можешь ещё и почитать, есть столовая, где можно полноценно покушать.</t>
-  </si>
-  <si>
     <t>Иногда на факультете проводятся клубные тусовки, где ты можешь потанцевать и подвигаться. $$поднимает брови$$Но есть и милые ламповые встречи, например, мне по душе пришелся вечер стихов при тусклом свете и пением под гитару. $$мечтательная улыбка$$ К тому же, проводятся выступления по поводу окончания семестра, например, недавно была "мисс весна", где выступали вокалистки факультета $$поднимает брови$$</t>
   </si>
   <si>
@@ -135,6 +129,12 @@
   </si>
   <si>
     <t>удачи</t>
+  </si>
+  <si>
+    <t>где в корпусе столовая</t>
+  </si>
+  <si>
+    <t>Ахахах, о еде. $$удивление $$улыбка  В корпусе на первом этаже есть столовая и автомат с кофе, $$улыбка также прямо на остановке факультета есть киоск, выше по склону слата, и в библиотеке, где ты можешь ещё и почитать, есть столовая, где можно полноценно покушать.</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -508,21 +508,21 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="216" x14ac:dyDescent="0.3">
@@ -541,21 +541,21 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -563,81 +563,81 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">

--- a/схема.xlsx
+++ b/схема.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,27 +66,15 @@
     <t>Стипендия есть у студентов, учащихся на бюджете, до первой сессии она есть у всех первокурсников и равна стипендии для студентов, сдавших сессию на 4 и 5. После первой сессии для студентов, сдавших сессию на 4 и 5 она составляет, по последним данным, 3200 рублей, для сдавших сессию на 5 - 5600 рублей. Сумма стипендии иногда меняется, поэтому советую отслеживать новости в группе профкома фсир в вк</t>
   </si>
   <si>
-    <t>Предметы расставлены в приоритете: информатика, математика, русский язык</t>
-  </si>
-  <si>
     <t>На сайте иркутского государственного университета есть информация о самом университете, а также о факультете сервиса и рекламы</t>
   </si>
   <si>
-    <t>Есть возможность изучать польский, некоторые студенты после этого могут поехать по обмену в Польшу; французский или испанский, для направления туризм; английский в рамках учебной программы</t>
-  </si>
-  <si>
     <t>когда можно прийти посмотреть факультет</t>
   </si>
   <si>
-    <t>корпус №6 лермонтова 126, главный корпус рядом с белый домом</t>
-  </si>
-  <si>
     <t>Иногда на факультете проводятся клубные тусовки, где ты можешь потанцевать и подвигаться. $$поднимает брови$$Но есть и милые ламповые встречи, например, мне по душе пришелся вечер стихов при тусклом свете и пением под гитару. $$мечтательная улыбка$$ К тому же, проводятся выступления по поводу окончания семестра, например, недавно была "мисс весна", где выступали вокалистки факультета $$поднимает брови$$</t>
   </si>
   <si>
-    <t>Слата выше по склону и киоск прямо на остановке</t>
-  </si>
-  <si>
     <t>Для удобства студентов создан форлабс, электронная база, где можно отследить свои баллы по предметам, посмотреть или прикрепить домашнее задание, написать преподавателю или пройти тест или контрольную в режиме онлайн. Для прикладников, и конечно для всех желающих существует возможность создания своих проектов в лаборатории, общение со старшими курсами, которые могут помочь и рассказать что-то полезное</t>
   </si>
   <si>
@@ -135,6 +124,18 @@
   </si>
   <si>
     <t>Ахахах, о еде. $$удивление $$улыбка  В корпусе на первом этаже есть столовая и автомат с кофе, $$улыбка также прямо на остановке факультета есть киоск, выше по склону слата, и в библиотеке, где ты можешь ещё и почитать, есть столовая, где можно полноценно покушать.</t>
+  </si>
+  <si>
+    <t>Предметы расставлены в приоритете: информатика, математика, русский язык $хитрость</t>
+  </si>
+  <si>
+    <t>Есть возможность изучать польский, некоторые студенты после этого могут поехать по обмену в Польшу; французский или испанский, для направления туризм; английский в рамках учебной программы $$хитрость</t>
+  </si>
+  <si>
+    <t>корпус №6 лермонтова 126, главный корпус рядом с белый домом $$уточка</t>
+  </si>
+  <si>
+    <t>Слата выше по склону и киоск прямо на остановке $$хитрость</t>
   </si>
 </sst>
 </file>
@@ -481,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,15 +493,15 @@
     <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -508,10 +509,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -519,10 +520,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -533,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="216" x14ac:dyDescent="0.3">
@@ -544,18 +545,18 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -563,21 +564,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
@@ -585,10 +586,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
@@ -596,10 +597,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
@@ -607,10 +608,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -618,26 +619,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">

--- a/схема.xlsx
+++ b/схема.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,65 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
-  <si>
-    <t>В поддержку новичкам реализована программа помогатор, в рамках которой студенты могут помогать отстающим</t>
-  </si>
-  <si>
-    <t>Для школьников проводятся дни открытых дверей, на которых можно узнать всю необходимую информацию о факультете, задать вопросы, больше узнать о программе прикладной информатики</t>
-  </si>
-  <si>
-    <t>какие егэ учитываются при поступлении на прикладную информатику</t>
-  </si>
-  <si>
-    <t>где можно посмотреть информацию о университете или факультете</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>что делать если я боюсь не успевать</t>
   </si>
   <si>
-    <t>какая есть стипендия</t>
-  </si>
-  <si>
     <t>где находится корпус</t>
   </si>
   <si>
-    <t>какие мероприятия есть на факультете</t>
-  </si>
-  <si>
-    <t>чем еще можно заняться в свободное время</t>
-  </si>
-  <si>
-    <t>какие устраиваются тусовки для студентов</t>
-  </si>
-  <si>
-    <t>какие есть возможности изучения других языков</t>
-  </si>
-  <si>
-    <t>какие рядом магазины</t>
-  </si>
-  <si>
-    <t>Стипендия есть у студентов, учащихся на бюджете, до первой сессии она есть у всех первокурсников и равна стипендии для студентов, сдавших сессию на 4 и 5. После первой сессии для студентов, сдавших сессию на 4 и 5 она составляет, по последним данным, 3200 рублей, для сдавших сессию на 5 - 5600 рублей. Сумма стипендии иногда меняется, поэтому советую отслеживать новости в группе профкома фсир в вк</t>
-  </si>
-  <si>
-    <t>На сайте иркутского государственного университета есть информация о самом университете, а также о факультете сервиса и рекламы</t>
-  </si>
-  <si>
-    <t>когда можно прийти посмотреть факультет</t>
-  </si>
-  <si>
-    <t>Иногда на факультете проводятся клубные тусовки, где ты можешь потанцевать и подвигаться. $$поднимает брови$$Но есть и милые ламповые встречи, например, мне по душе пришелся вечер стихов при тусклом свете и пением под гитару. $$мечтательная улыбка$$ К тому же, проводятся выступления по поводу окончания семестра, например, недавно была "мисс весна", где выступали вокалистки факультета $$поднимает брови$$</t>
-  </si>
-  <si>
-    <t>Для удобства студентов создан форлабс, электронная база, где можно отследить свои баллы по предметам, посмотреть или прикрепить домашнее задание, написать преподавателю или пройти тест или контрольную в режиме онлайн. Для прикладников, и конечно для всех желающих существует возможность создания своих проектов в лаборатории, общение со старшими курсами, которые могут помочь и рассказать что-то полезное</t>
-  </si>
-  <si>
-    <t>какие  привилегии</t>
-  </si>
-  <si>
-    <t>какие привилегии у факультета сервиса и рекламы</t>
-  </si>
-  <si>
     <t>пока</t>
   </si>
   <si>
@@ -120,29 +68,122 @@
     <t>удачи</t>
   </si>
   <si>
-    <t>где в корпусе столовая</t>
-  </si>
-  <si>
-    <t>Ахахах, о еде. $$удивление $$улыбка  В корпусе на первом этаже есть столовая и автомат с кофе, $$улыбка также прямо на остановке факультета есть киоск, выше по склону слата, и в библиотеке, где ты можешь ещё и почитать, есть столовая, где можно полноценно покушать.</t>
-  </si>
-  <si>
-    <t>Предметы расставлены в приоритете: информатика, математика, русский язык $хитрость</t>
-  </si>
-  <si>
-    <t>Есть возможность изучать польский, некоторые студенты после этого могут поехать по обмену в Польшу; французский или испанский, для направления туризм; английский в рамках учебной программы $$хитрость</t>
-  </si>
-  <si>
-    <t>корпус №6 лермонтова 126, главный корпус рядом с белый домом $$уточка</t>
-  </si>
-  <si>
-    <t>Слата выше по склону и киоск прямо на остановке $$хитрость</t>
+    <t>когда можно прийти и посмотреть факультет? / Как можно больше узнать о факультете? / Можно ли лично взглянуть? / Есть ли дни открытых дверей?</t>
+  </si>
+  <si>
+    <t>академическая стипендия</t>
+  </si>
+  <si>
+    <t>Для того, чтобы поступить к нам, тебе нужно иметь хорошие баллы по информатике, математике и русскому. Именно в таком порядке сортируются люди, у которых одинаковое общее количество баллов. $$база_говорит</t>
+  </si>
+  <si>
+    <t>У нас на факультете у тебя возможность изучать польский, и, если ты, счастливчик, будешь трудиться, сможешь поехать по обмену в Польшу $$уточка</t>
+  </si>
+  <si>
+    <t>какие егэ учитываются поступлении прикладную информатику</t>
+  </si>
+  <si>
+    <t>есть возможность изучать другие языки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">какая есть стипендия </t>
+  </si>
+  <si>
+    <t>где посмотреть необходимые сведения</t>
+  </si>
+  <si>
+    <t>как можно  увеличить cтипендию</t>
+  </si>
+  <si>
+    <t>есть ли в корпусе столовая</t>
+  </si>
+  <si>
+    <t>есть ли рядом магазины</t>
+  </si>
+  <si>
+    <t>есть привилегии у студента факультета сервиса и рекламы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">какие мероприятия есть на факультете </t>
+  </si>
+  <si>
+    <t>устраиваются ли какие-нибудь тусовки для студентов</t>
+  </si>
+  <si>
+    <t>чем еще можно заняться свободное время</t>
+  </si>
+  <si>
+    <t>где проходят занятия</t>
+  </si>
+  <si>
+    <t>адрес корпуса</t>
+  </si>
+  <si>
+    <t>чем заняться летом</t>
+  </si>
+  <si>
+    <t>организация мероприятий</t>
+  </si>
+  <si>
+    <t>чем я могу заняться кроме учёбы</t>
+  </si>
+  <si>
+    <t>какие есть дополнительные кружки или занятия на факультете</t>
+  </si>
+  <si>
+    <t>Университет - это не школа, потому, когда ты поступишь на интересующее тебя направление, с тобой рядом будет много людей, разделяющих твои интересы, так что - обратиться за помощью к однокурсникам - хорошая идея. К тому же, у нас есть замечательные преподаватели, не стесняйся, ты всегда можешь попросить у них о помощи. В поддержку новичкам реализована программа помогатор, в рамках которой студенты могут помогать отстающим $$улыбка</t>
+  </si>
+  <si>
+    <t>Академическая стипендия есть у студентов, учащихся на бюджете, до первой сессии она есть у всех первокурсников и равна стипендии для студентов, сдавших сессию на 4 и 5. По последним данным, для сессии с 4 стипендия 3300 рублей, если только на 5 - можешь наслаждаться 5700 рублями. Сумма стипендии меняется, поэтому отслеживай новости в группе профкома в вк $$хитрость</t>
+  </si>
+  <si>
+    <t>ИГУ есть стипендия для бакалавров и магистров, социальная и повышенная социальная стипендия, программам подготовки научно-педагогических кадров и по программам подготовки научно-педагогических кадров по техническим и естественным направлениям подготовки, а также повышенная академическая стипендия. Какая тебя больше интересует? (подмигивает) $$смущение</t>
+  </si>
+  <si>
+    <t>На сайте игу есть информация о самом университете, а также ссылка на сайт факультета сервиса и рекламы $$база_говорит</t>
+  </si>
+  <si>
+    <t>Будешь хорошо учится и учавствовать в общественное жизни университета, и такая возможность станет для тебя осуществимой $$хитрость</t>
+  </si>
+  <si>
+    <t>Для школьников проводятся дни открытых дверей, на которых можно узнать всю необходимую информацию о факультете, задать вопросы, больше узнать о программе прикладной информатики $$улыбка</t>
+  </si>
+  <si>
+    <t>Наш адрес: ул. Лермонтова 126 VI корпус ИГУ. Некоторые занятия проходят в Библиотеке, куда наши студенты приходят и просто позаниматься $$улыбка</t>
+  </si>
+  <si>
+    <t>Телефон: 426-417 Почта: service@sr.isu.ru Адрес: ул.Лермонтова 126 VI корпус ИГУ $$уточка</t>
+  </si>
+  <si>
+    <t>Иногда на факультете проводятся клубные тусовки, где ты можешь потанцевать и подвигаться. Но есть и милые ламповые встречи, например, мне по душе пришелся вечер стихов при тусклом свете и пением под гитару. К тому же, проводятся выступления по поводу окончания семестра, например, недавно была "мисс весна", где выступали вокалистки факультета $$счастье</t>
+  </si>
+  <si>
+    <t>Ахахах, о еде. В корпусе на первом этаже есть столовая и автомат с кофе, прямо на остановке факультета есть киоск, выше по склону слата, и в библиотеке, где ты можешь ещё и почитать, есть еще столовая, где можно вкусно и недорого покушать $$смущение</t>
+  </si>
+  <si>
+    <t>Слата выше по склону. Киоск прямо на остановке $$сарказм</t>
+  </si>
+  <si>
+    <t>Для удобства студентов создан форлабс, электронная база, где можно отследить свои баллы по предметам, посмотреть или прикрепить домашнее задание, написать преподавателю или пройти тест или контрольную в режиме онлайн. Для прикладников, и конечно для всех желающих существует возможность создания своих проектов в лаборатории, общение со старшими курсами, которые могут помочь и рассказать что-то полезное $$уточка</t>
+  </si>
+  <si>
+    <t>Если ты полиглот, тот у тебя есть отличная возможность изучения польского или французского, также есть кружок вокала и стихов, танцевальный коллектив "MIX LIFE" $$счастье</t>
+  </si>
+  <si>
+    <t>Для участия в организации мероприятий можно поступить в профком, проект - студию гос. В своё время я не уделил этому должного внимания. $$печаль</t>
+  </si>
+  <si>
+    <t>на факультете есть профком, проект - студия Гос, научное общество, различные спортивные клубы, волонтёрский центр, арт-отдел, для более подробной информации назови отдел, который тебя интересует $$улыбка</t>
+  </si>
+  <si>
+    <t>Для студентов предусмотрен научно-учебные центр "Сарма" На базе НУЦ «Сарма» проводятся студенческие форумы, олимпиады, практики и другие мероприятия $$счастье</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,12 +201,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3D474D"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444E53"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF444E53"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -198,6 +254,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,185 +555,262 @@
     <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="67.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="186" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="159.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="172.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="67.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="67.2" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="146.4" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="146.4" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="146.4" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="106.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="186" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="80.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="93.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="67.2" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
